--- a/ol-handback/kimizhu/CapsToOps0129_EMS/master/localization-status.xlsx
+++ b/ol-handback/kimizhu/CapsToOps0129_EMS/master/localization-status.xlsx
@@ -7,13 +7,14 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="es-es" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>File Name</t>
   </si>
@@ -21,6 +22,9 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>es-es</t>
+  </si>
+  <si>
     <t>1-rms-onboarding-process.png</t>
   </si>
   <si>
@@ -219,7 +223,7 @@
     <t>d7641e47928129e58192ac12d9e36cd56c57be4d.png</t>
   </si>
   <si>
-    <t>2016-02-17 02:58:38</t>
+    <t>2016-02-17 05:25:11</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -261,10 +265,19 @@
     <t>Enterprise-Mobility-FastTrack-Program.89e14b138d589155b3c31d3719c83b05a298da8f.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-02-17 02:58:38</t>
+  </si>
+  <si>
     <t>Include</t>
   </si>
   <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>2016-02-17 05:25:25</t>
+  </si>
+  <si>
+    <t>Enterprise-Mobility-FastTrack-Program.89e14b138d589155b3c31d3719c83b05a298da8f.es-es.xlf</t>
   </si>
 </sst>
 </file>
@@ -339,10 +352,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="es-es" displayName="es_es" ref="A1:J1" headerRowCount="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Latest Handoff File"/>
+    <tableColumn id="4" name="Latest Handoff Datetime"/>
+    <tableColumn id="5" name="Latest Target File"/>
+    <tableColumn id="6" name="Latest Handback File"/>
+    <tableColumn id="7" name="Latest Handback DateTime"/>
+    <tableColumn id="8" name="Handoff Reason"/>
+    <tableColumn id="9" name="Dependency From"/>
+    <tableColumn id="10" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
+  <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="de-de"/>
+    <tableColumn id="3" name="es-es"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -350,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -358,6 +390,7 @@
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -367,437 +400,602 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -885,1018 +1083,1018 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1971,4 +2169,1113 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="1-rms-onboarding-process.png" r:id="rId2"/>
+    <hyperlink ref="C2" display="d7641e47928129e58192ac12d9e36cd56c57be4d.png" r:id="rId3"/>
+    <hyperlink ref="A3" display="4-aadp-assess-phase-v3.png" r:id="rId4"/>
+    <hyperlink ref="C3" display="37eebe7c7d8e52eb31e73bd024985eac7486d0a3.png" r:id="rId5"/>
+    <hyperlink ref="A4" display="4-aadp-assess-phase-v5.png" r:id="rId6"/>
+    <hyperlink ref="C4" display="37eebe7c7d8e52eb31e73bd024985eac7486d0a3.png" r:id="rId7"/>
+    <hyperlink ref="A5" display="Enable-phase-Intune-11-20-15.png" r:id="rId8"/>
+    <hyperlink ref="C5" display="f0db5300f58aef37da4c0f87bc02e14cbd2c51f3.png" r:id="rId9"/>
+    <hyperlink ref="A6" display="Intune-assess-phase-9-15-15.png" r:id="rId10"/>
+    <hyperlink ref="C6" display="989a623c0d4d648a6411d300d24e7b166b79dcc5.png" r:id="rId11"/>
+    <hyperlink ref="A7" display="Intune-enable-phase-core-9-15-15.png" r:id="rId12"/>
+    <hyperlink ref="C7" display="468d344e2a354c889a0b77b3f0a7796d27208641.png" r:id="rId13"/>
+    <hyperlink ref="A8" display="Intune-initiate-phase-9-15-15-v2.png" r:id="rId14"/>
+    <hyperlink ref="C8" display="f0021622ea4a945d276e049e1f53980ef5bbcb47.png" r:id="rId15"/>
+    <hyperlink ref="A9" display="Intune-onboarding-phases-9-15-15.png" r:id="rId16"/>
+    <hyperlink ref="C9" display="01dceb32e182d5a32c095ee441855d58848f2ef2.png" r:id="rId17"/>
+    <hyperlink ref="A10" display="Microsoft-Azure-AD-Premium-assess-phase-v6.png" r:id="rId18"/>
+    <hyperlink ref="C10" display="37eebe7c7d8e52eb31e73bd024985eac7486d0a3.png" r:id="rId19"/>
+    <hyperlink ref="A11" display="Enterprise-Mobility-FastTrack-Program.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="Enterprise-Mobility-FastTrack-Program.89e14b138d589155b3c31d3719c83b05a298da8f.es-es.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display=".gitignore" r:id="rId22"/>
+    <hyperlink ref="A13" display=".localization-config" r:id="rId23"/>
+    <hyperlink ref="A14" display=".openpublishing.build.ps1" r:id="rId24"/>
+    <hyperlink ref="A15" display=".openpublishing.publish.config.json" r:id="rId25"/>
+    <hyperlink ref="A16" display="docfx.json" r:id="rId26"/>
+    <hyperlink ref="A17" display="1-aadp-onboarding-process-v3.png" r:id="rId27"/>
+    <hyperlink ref="A18" display="2-aadp-onboarding-phases-v3.png" r:id="rId28"/>
+    <hyperlink ref="A19" display="4-aadp-assess-phase-v4.png" r:id="rId29"/>
+    <hyperlink ref="A20" display="Intune-enable-phase-sccm-9-15-15.png" r:id="rId30"/>
+    <hyperlink ref="A21" display="Intune-enable-phase-standalone-9-15-15.png" r:id="rId31"/>
+    <hyperlink ref="A22" display="Intune-onboarding-process-10-7-15-v2.png" r:id="rId32"/>
+    <hyperlink ref="A23" display="Intune-onboarding-process-10-7-15_old.png" r:id="rId33"/>
+    <hyperlink ref="A24" display="Intune-onboarding-process-9-15-15.png" r:id="rId34"/>
+    <hyperlink ref="A25" display="Microsoft-Azure-AD-Premium-assess-phase-2.png" r:id="rId35"/>
+    <hyperlink ref="A26" display="Microsoft-Azure-AD-Premium-enable-phase-1.png" r:id="rId36"/>
+    <hyperlink ref="A27" display="Microsoft-Azure-AD-Premium-enable-phase-2.png" r:id="rId37"/>
+    <hyperlink ref="A28" display="Microsoft-Azure-AD-Premium-initiate-phase-1.png" r:id="rId38"/>
+    <hyperlink ref="A29" display="Microsoft-Azure-AD-Premium-onboarding-phases-1.png" r:id="rId39"/>
+    <hyperlink ref="A30" display="Microsoft-Azure-AD-Premium-onboarding-phases-2.png" r:id="rId40"/>
+    <hyperlink ref="A31" display="Microsoft-Azure-AD-Premium-onboarding-process-1.png" r:id="rId41"/>
+    <hyperlink ref="A32" display="Microsoft-Azure-AD-Premium-onboarding-process-2.png" r:id="rId42"/>
+    <hyperlink ref="A33" display="Microsoft-Azure-AD-Premium-remediate-phase-1.png" r:id="rId43"/>
+    <hyperlink ref="A34" display="Microsoft-Intune-onboarding-assess-phase-1.png" r:id="rId44"/>
+    <hyperlink ref="A35" display="Microsoft-Intune-onboarding-enable-phase-core-5.vsdx" r:id="rId45"/>
+    <hyperlink ref="A36" display="Microsoft-Intune-onboarding-enable-phase-Intune-core-1.png" r:id="rId46"/>
+    <hyperlink ref="A37" display="Microsoft-Intune-onboarding-enable-phase-Intune-core-2.png" r:id="rId47"/>
+    <hyperlink ref="A38" display="Microsoft-Intune-onboarding-enable-phase-Intune-core-3.png" r:id="rId48"/>
+    <hyperlink ref="A39" display="Microsoft-Intune-onboarding-enable-phase-Intune-core-4.png" r:id="rId49"/>
+    <hyperlink ref="A40" display="Microsoft-Intune-onboarding-enable-phase-Intune-core-5.png" r:id="rId50"/>
+    <hyperlink ref="A41" display="Microsoft-Intune-onboarding-enable-phase-Intune-hybrid-1.png" r:id="rId51"/>
+    <hyperlink ref="A42" display="Microsoft-Intune-onboarding-enable-phase-Intune-hybrid-3.png" r:id="rId52"/>
+    <hyperlink ref="A43" display="Microsoft-Intune-onboarding-enable-phase-Intune-standalone-1.png" r:id="rId53"/>
+    <hyperlink ref="A44" display="Microsoft-Intune-onboarding-initiate-phase-1.png" r:id="rId54"/>
+    <hyperlink ref="A45" display="Microsoft-Intune-onboarding-phases-1.png" r:id="rId55"/>
+    <hyperlink ref="A46" display="Microsoft-Intune-onboarding-process-1.png" r:id="rId56"/>
+    <hyperlink ref="A47" display="Microsoft-Intune-onboarding-remediate-phase-1.png" r:id="rId57"/>
+    <hyperlink ref="A48" display="FastTrack-Center-Benefit-for-Azure-Active-Directory-Premium.md" r:id="rId58"/>
+    <hyperlink ref="A49" display="FastTrack-Center-Benefit-for-Azure-Rights-Management.md" r:id="rId59"/>
+    <hyperlink ref="A50" display="FastTrack-Center-Benefit-for-Enterprise-Mobility-Suite.md" r:id="rId60"/>
+    <hyperlink ref="A51" display="FastTrack-Center-Benefit-for-Intune.md" r:id="rId61"/>
+    <hyperlink ref="A52" display="FastTrack-Center-Benefit-Process-for-Azure-Active-Directory-Premium-.md" r:id="rId62"/>
+    <hyperlink ref="A53" display="FastTrack-Center-Benefit-Process-for-Azure-Rights-Management.md" r:id="rId63"/>
+    <hyperlink ref="A54" display="FastTrack-Center-Benefit-Process-for-Intune.md" r:id="rId64"/>
+    <hyperlink ref="A55" display="TOC.md" r:id="rId65"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>